--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2366829.024791213</v>
+        <v>-2368826.697804058</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>58.05994154195382</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>51.7322465951818</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>14.48345164522457</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>22.11041309544134</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>17.09300973225714</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>38.59354230055921</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>169.0167291702125</v>
       </c>
       <c r="X7" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>292.4295616677055</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>160.8783715448855</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="W10" t="n">
-        <v>234.4970761400737</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>135.8803936258646</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>127.4321567831319</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>207.9577844203815</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>122.2856036254971</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>127.4321567831321</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463054</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2530,7 +2530,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V25" t="n">
         <v>184.0057531941874</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329028</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789601</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539631</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689365</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463131</v>
@@ -3715,7 +3715,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689363</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463127</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3952,7 +3952,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1278.657628994267</v>
+        <v>1194.534876920951</v>
       </c>
       <c r="C2" t="n">
-        <v>1278.657628994267</v>
+        <v>825.572359980539</v>
       </c>
       <c r="D2" t="n">
-        <v>920.3919303875161</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T2" t="n">
         <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="Y2" t="n">
-        <v>1665.257469058388</v>
+        <v>1581.134716985072</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,16 +4434,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>323.2572191628418</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>823.3126770315976</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>2073.341042251573</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>2073.341042251573</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.912517095719</v>
+        <v>2073.341042251573</v>
       </c>
     </row>
     <row r="6">
@@ -4641,10 +4641,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>266.2060027641994</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791649</v>
+        <v>224.666950679165</v>
       </c>
       <c r="V7" t="n">
-        <v>224.6669506791649</v>
+        <v>224.666950679165</v>
       </c>
       <c r="W7" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>1494.518401093285</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>1125.555884152873</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>767.2901855461225</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>767.2901855461225</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4814,7 +4814,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.439508261991</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2049.677722900083</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1718.614835556512</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1718.614835556512</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.614835556512</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.4755035807</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4966,37 +4966,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951864</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V10" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
         <v>53.94298182036445</v>
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5130,10 +5130,10 @@
         <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.99338900868</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P12" t="n">
         <v>2317.834075963124</v>
@@ -5258,28 +5258,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5355,16 +5355,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141288</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N15" t="n">
         <v>1171.725741678162</v>
@@ -5464,22 +5464,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.1184791449342</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>835.416391538794</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5829,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O21" t="n">
         <v>1797.533454227377</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>834.5937666237584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6575836958515</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>515.5409442835157</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>367.6278507011226</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>220.7379032032123</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>1016.242231453998</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6029,10 +6029,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141288</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N24" t="n">
         <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103121</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H25" t="n">
-        <v>139.9315917982965</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
         <v>709.8489468649691</v>
@@ -6178,19 +6178,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U25" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W25" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,16 +6303,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
         <v>1171.725741678162</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083203</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
@@ -6388,7 +6388,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6503,10 +6503,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6540,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N30" t="n">
         <v>1171.725741678162</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L31" t="n">
         <v>709.8489468649691</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N33" t="n">
         <v>1171.725741678162</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6923,43 +6923,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
@@ -7023,10 +7023,10 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.130761344647</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
         <v>1797.533454227377</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,7 +7096,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7151,34 +7151,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,16 +7251,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N39" t="n">
         <v>1171.725741678162</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7500,16 +7500,16 @@
         <v>841.8631140141288</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.725741678162</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O42" t="n">
-        <v>1841.189502980821</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083204</v>
@@ -7561,7 +7561,7 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
@@ -7737,7 +7737,7 @@
         <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
         <v>1797.533454227377</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>221.0467526719084</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8778,13 +8778,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>274.3657496970643</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>349.7653003338571</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9489,10 +9489,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>349.7653003338571</v>
+        <v>360.502686290725</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>349.7653003338568</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>349.7653003338568</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498453</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10671,13 +10671,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>349.7653003338568</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>349.7653003338568</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>176.7176547498456</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>274.3657496970648</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11385,10 +11385,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>349.7653003338568</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>296.6231000787291</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>307.7940920500752</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>174.5374359006678</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>82.70425972623022</v>
       </c>
     </row>
     <row r="17">
@@ -23893,16 +23893,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>158.8051956154454</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>17.75187096865568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>44.20796483788044</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>124.7054865406959</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1305150.523418019</v>
+        <v>1305150.52341802</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371246</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26399,7 +26399,7 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26439,22 +26439,22 @@
         <v>37464.45686275957</v>
       </c>
       <c r="J4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="K4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="L4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="M4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="K4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="L4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="N4" t="n">
-        <v>37464.45686275958</v>
-      </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,7 +26479,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,7 +26488,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
@@ -26500,7 +26500,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-780878.5005874787</v>
+        <v>-781091.9125773574</v>
       </c>
       <c r="C6" t="n">
         <v>-239634.0363146321</v>
@@ -26528,19 +26528,19 @@
         <v>-239634.0363146321</v>
       </c>
       <c r="E6" t="n">
-        <v>-632193.0320470518</v>
+        <v>-632290.4911730239</v>
       </c>
       <c r="F6" t="n">
-        <v>-107032.9955701557</v>
+        <v>-107130.4546961279</v>
       </c>
       <c r="G6" t="n">
-        <v>-107032.9955701557</v>
+        <v>-107130.4546961279</v>
       </c>
       <c r="H6" t="n">
-        <v>-107032.9955701557</v>
+        <v>-107130.4546961279</v>
       </c>
       <c r="I6" t="n">
-        <v>-189685.0747864975</v>
+        <v>-189685.0747864974</v>
       </c>
       <c r="J6" t="n">
         <v>-311602.7818753779</v>
@@ -26701,28 +26701,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964068</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26741,43 +26741,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26923,25 +26923,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.684341886080801e-14</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>99.08195369163627</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>334.5056920608718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>271.7984225967531</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>230.0272302283867</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>51.17221948836931</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>348.1798820387504</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>310.6474264168538</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>117.5062691663785</v>
       </c>
       <c r="X7" t="n">
-        <v>56.69292621882474</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>114.446484074006</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>55.56994881277231</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="W10" t="n">
-        <v>52.02592219651729</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35498,13 +35498,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>682.9598737318697</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>481.459164628589</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,13 +35732,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>632.1290025749652</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35747,7 +35747,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
@@ -36206,13 +36206,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>682.9598737318697</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36221,7 +36221,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>632.1290025749652</v>
+        <v>642.8663885318332</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36528,10 +36528,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q25" t="n">
         <v>107.3575901015154</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36680,13 +36680,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>632.1290025749649</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36695,7 +36695,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36768,7 +36768,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
@@ -36917,13 +36917,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>632.1290025749649</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36932,7 +36932,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,13 +37391,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>660.1896773843231</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37406,7 +37406,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37628,13 +37628,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>632.1290025749649</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37643,7 +37643,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37868,19 +37868,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>509.9122281478584</v>
       </c>
       <c r="O42" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>481.4591646285895</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,13 +38102,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>682.9598737318697</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38117,7 +38117,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
